--- a/Map Generator.xlsx
+++ b/Map Generator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\potion_mixer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\2018-seattle-indies-game-jam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64C496B-97BA-46D8-A54D-BEFAB90E1BB4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FB6842-B0B1-422D-B891-9D7F54CBCC9F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12810" activeTab="1" xr2:uid="{5A9AAEC5-354E-4723-AA87-9A261CBD15FD}"/>
+    <workbookView xWindow="2376" yWindow="0" windowWidth="27876" windowHeight="12816" xr2:uid="{5A9AAEC5-354E-4723-AA87-9A261CBD15FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Terrain" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
   <si>
     <t>Water</t>
   </si>
@@ -59,6 +59,15 @@
   <si>
     <t>Spider</t>
   </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
 </sst>
 </file>
 
@@ -80,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +150,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -289,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -309,51 +324,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <font>
-        <color theme="4" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color theme="1"/>
@@ -416,236 +394,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="4" tint="0.59996337778862885"/>
       </font>
       <fill>
@@ -666,21 +414,21 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4" tint="0.59996337778862885"/>
+        <color theme="2" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="2" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="4" tint="0.59996337778862885"/>
+        <color theme="5" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1003,25 +751,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19417604-F056-4753-AFAF-17968CF457EF}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView zoomScale="325" zoomScaleNormal="325" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
         <v>2</v>
       </c>
       <c r="B1" s="3">
         <v>2</v>
       </c>
-      <c r="C1" s="3">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3">
-        <v>2</v>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F1" s="3">
         <v>2</v>
@@ -1039,30 +789,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>2</v>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2</v>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
@@ -1077,30 +827,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="1">
-        <v>2</v>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -1115,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1153,15 +903,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2</v>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <v>2</v>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -1191,15 +941,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -1210,20 +960,20 @@
       <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2</v>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="J6" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -1242,20 +992,20 @@
       <c r="F7" s="1">
         <v>3</v>
       </c>
-      <c r="G7" s="1">
-        <v>2</v>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
       </c>
-      <c r="I7" s="1">
-        <v>2</v>
+      <c r="I7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="J7" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -1265,29 +1015,29 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
       </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1">
-        <v>2</v>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="J8" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -1297,8 +1047,8 @@
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
-        <v>2</v>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -1319,7 +1069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -1329,11 +1079,11 @@
       <c r="C10" s="8">
         <v>2</v>
       </c>
-      <c r="D10" s="8">
-        <v>2</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2</v>
+      <c r="D10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F10" s="8">
         <v>3</v>
@@ -1353,16 +1103,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1375,13 +1125,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F0A3EA-A579-4051-AD7D-15D9CF39E51C}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1391,13 +1141,17 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1411,14 +1165,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="6"/>
@@ -1429,17 +1187,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="6"/>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
       <c r="M4" s="17">
         <v>3</v>
       </c>
@@ -1447,7 +1205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="1">
         <v>5</v>
@@ -1459,7 +1217,9 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="6"/>
       <c r="M5" s="16">
@@ -1469,16 +1229,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1491,7 +1249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1499,11 +1257,13 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1517,7 +1277,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
@@ -1530,14 +1290,14 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
-      <c r="B10" s="8">
-        <v>5</v>
-      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1549,22 +1309,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
